--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2813.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2813.xlsx
@@ -354,7 +354,7 @@
         <v>2.442045215072281</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.363367099241056</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2813.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2813.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172692355894523</v>
+        <v>0.8859735727310181</v>
       </c>
       <c r="B1">
-        <v>2.442045215072281</v>
+        <v>1.69651186466217</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.046674251556396</v>
       </c>
       <c r="D1">
-        <v>2.363367099241056</v>
+        <v>3.673566579818726</v>
       </c>
       <c r="E1">
-        <v>1.23146244961543</v>
+        <v>0.7807289958000183</v>
       </c>
     </row>
   </sheetData>
